--- a/Age_Calculator/Robot_way/Test_data.xlsx
+++ b/Age_Calculator/Robot_way/Test_data.xlsx
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">${date_input}</t>
   </si>
   <si>
+    <t xml:space="preserve">${Years}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13-05-1994</t>
+  </si>
+  <si>
     <t xml:space="preserve">13-05-1993</t>
   </si>
   <si>
-    <t xml:space="preserve">13-05-2012</t>
+    <t xml:space="preserve">13-05-1995</t>
   </si>
 </sst>
 </file>
@@ -38,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +71,12 @@
       <color rgb="FF499936"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,12 +121,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,30 +211,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
